--- a/SQ_CLUB_DD.xlsx
+++ b/SQ_CLUB_DD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20280" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33200" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,9 +260,6 @@
     <t>Player profile users would login and be able to record results in existing match table records re their own user_ids</t>
   </si>
   <si>
-    <t>iii.  creates records in comp_participants by entering Comp_Id, Sub_Comp_Id &amp; User_Id data, all via listboxes that show names not ids</t>
-  </si>
-  <si>
     <t>For knockout competitions it should be possible to automate step ii. above for all rounds after the initial round, by retrieving the winning user_ids from the previous round to enter into the latest round</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>Boolean</t>
+  </si>
+  <si>
+    <t>iii.  creates records in matches table via hitting a button as the last stage of step ii above, this would trigger code that would create match table records using the newly created comp_id and sub_comp_id values, plus:</t>
   </si>
 </sst>
 </file>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
         <v>79</v>
-      </c>
-      <c r="B42" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1480,7 +1480,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
@@ -1500,7 +1500,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
